--- a/myDB.xlsx
+++ b/myDB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbj/Documents/GitHub/sc-type/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardbarrett-jolley/Documents/GitHub/sc-type/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C28A9EAE-9758-E046-85CB-18DC25FAD009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36F7B2D-55AF-D048-92AB-3C618C3F94A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9500" yWindow="2420" windowWidth="27640" windowHeight="16940" xr2:uid="{A7806880-FFB4-DB4F-8ECA-EC8C1977D7DA}"/>
+    <workbookView xWindow="15180" yWindow="5520" windowWidth="25740" windowHeight="16940" xr2:uid="{A7806880-FFB4-DB4F-8ECA-EC8C1977D7DA}"/>
   </bookViews>
   <sheets>
     <sheet name="2_all_signatures" sheetId="2" r:id="rId1"/>
@@ -37,80 +37,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="93">
-  <si>
-    <t>Cav2;Afap1l1;Ltbp4;Itga6;Eogt;Rasgrp3;Wwtr1;Sema7a;Slc7a5;Palmd;Ccdc141;Sema3c;Rasip1;Kank3;Cgnl1;9430020K01Rik;Ocln;Apold1;Grap;Hmcn1;Lsr;Prom1;Wfdc1;Ctla2a;Lef1;Car4;Paqr5;Foxq1;Nostrin;Pglyrp1;Fn1;Tie1;Cyyr1;Cldn5;Slco1a4;Sox17;Adgrl4</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="105">
   <si>
     <t>Vascular</t>
   </si>
   <si>
-    <t>Slit2;Deptor;Nkx2-4;Lhx2;Fzd5;Gpr50;Col23a1;Kctd14;Frzb;Rax</t>
-  </si>
-  <si>
     <t>Tanycytes</t>
   </si>
   <si>
-    <t>Kcnk3;Dnase2a;Smim22;Ccdc68;Krt18;Apoc3;Timeless;Cck;Cga;Ces1d;Cldn9;Figf;Dsp;Epcam;Pitx2;Tshb;Six1;Cldn7;Pitx1</t>
-  </si>
-  <si>
     <t>ParsTuber</t>
   </si>
   <si>
-    <t>Cd82;Dock10;Carhsp1;Mbp;Tmbim1;Psat1;Etv1;Arhgef10;Csrp1;Frmd8;Litaf;Slc44a1;Slain1;Gal3st1;Ppp1r16b;Tmem63a;Prr5l;Ttyh2;Gltp;Rhog;Creb5;Mobp;Elovl1;Gamt;Tspan2;Grb14;Gpr37;Trim59;Tprn;1700047M11Rik;Ugt8a;Myrf;Mag;Car14;Pdlim2;Tnfaip6;Hapln2;Fa2h;Tmem88b;Ppp1r14a;Gjc2;Cldn11;Gjb1;Ermn;Aspa;Opalin;Mog;Tmem125</t>
-  </si>
-  <si>
     <t>Oligodendrocytes</t>
   </si>
   <si>
-    <t>G0s2;Gpt2;Cdo1;Ppp1r14b;Car8;Traf4;Rlbp1;Snx22;Matn4;3110035E14Rik;Emid1;Neu4;C1ql1</t>
-  </si>
-  <si>
     <t>NG/OPC</t>
   </si>
   <si>
-    <t>Lpp;Tns2;Tgfb1i1;Wtip;Ecm2;Ntn4;Tbx3os1;Igfbp3;Perp;S1pr3;Pde3a;1810011O10Rik;Rasl12;4930523C07Rik;P2ry14;Cox4i2;Clec14a;Asb2;Pdlim3;Pde5a;Filip1l;Hspb2;Mylk;Mndal;Lrrc32;Slc38a11;Gja4;Tpm2;Sema3g;Mrvi1;Gm13861;Rbpms2;Mustn1;Gper1;Mir143hg;Gpr20;Map3k7cl;Aspn;Tagln;Pln;Des;Myh11;Olfr558;Lmod1</t>
-  </si>
-  <si>
     <t>Mural</t>
   </si>
   <si>
-    <t>Rgs10;Grn;Ifngr1;Plekho1;Kctd12;Ctsz;Nfkbiz;Fam105a;Lpcat2;F11r;Lyn;Tgfbr1;Fyb;Hexb;Alox5ap;Vsir;Lst1;Tgfb1;Pycard;Ptpn18;Hpgd;Hk2;Arhgdib;Unc93b1;Apbb1ip;Hpgds;Lcp1;Lair1;Cmtm7;Plek;Bcl2a1b;Cd68;Cyth4;Fermt3;Ctsc;Ncf1;Ptgs1;Gngt2;Ccr5;Cd52;Inpp5d;Crybb1;Slc15a3;Irf8;Tyrobp;Ltc4s;Aif1;Abi3;Selplg;Ccl4</t>
-  </si>
-  <si>
     <t>Immune</t>
   </si>
   <si>
-    <t>Clmp;Shc1;Flrt2;Fkbp9;Tnfsf12;Fhl2;Tnfrsf1a;Fam43a;Cmbl;Efemp2;Tgfbr3;Matn2;Medag;Eln;Mmp14;Copz2;Igfbp4;Wnt5a;Selenbp1;Lamb1;Serpine1;Col5a2;Col26a1;Abca8a;Cpxm1;Fkbp7;Bmp4;Fbln5;Htra3;Slc1a5;Tfpi;Mrc2;Zic4;Ogn;Bmp7;Enpp1;Lama1;Islr;Col6a1;Col4a5;Fgl2;Aldh1a1;Fbln7;Emp3;Gpr182;Zic1;Sod3;Ccl7;Serpinf1;Fbln2</t>
-  </si>
-  <si>
     <t>Fibroblasts</t>
   </si>
   <si>
-    <t>Ccdc41;2900006K08Rik;Ddo;Cfap46;Fhad1;Spata24;Stk33;Nin;Ccpg1os;4933434E20Rik;Efcab1;Ccdc30;2610015P09Rik;Lrrc6;Dnah7b;Ipo11;Fam188b;Hipk1;Drc1;D930014E17Rik;Galk2;Lyrm1;Ccdc173;Acss3;Cdk5rap2;Wdr78;Cep128;Cfap74;Plekha7;Armc2;Ccdc164;Rsph10b;Cetn4;Erich3;Nr2f1;Dnah1;Spag16;Plch1;Fam179a;Vwa5b1;1700003M02Rik;Cfap69;Lrrc9;Ulk4;Fank1;4932438H23Rik;Iqck;Gm5918;Ccdc65;A330021E22Rik</t>
-  </si>
-  <si>
     <t>Ependymal</t>
   </si>
   <si>
-    <t>Abhd3;Paqr8;Paqr6;Htra1;Nrarp;Arhgef26;Dbx2;Lfng;Gm3764;Tlcd1;Slc6a11;Phkg1;Lrig1;Pla2g7;Cyp2j9;Slc39a12;Cd38;Itih3;Fgfr3;Agt;Slc7a10</t>
-  </si>
-  <si>
     <t>Astrocytes</t>
   </si>
   <si>
-    <t>Sln;Ebf3;Ctxn3;Ebf2;Postn;Adgrd1;Eomes;Fam129a;Rbp7;Cxcl13;Pdlim3;Tmem182;Clec1a;Adprhl1;Zfp114;Col9a1;Wdfy2;Tank;Bhlhe40;Crispld2</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
     <t>Sln_Ctxn3</t>
   </si>
   <si>
-    <t>Sox14;Unc13c;Lef1;Krt73;Wif1;Bmp2;Kl;Rspo2;Bsx;Opcml</t>
-  </si>
-  <si>
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5323293/</t>
   </si>
   <si>
@@ -120,57 +84,30 @@
     <t>Lef1_Wif1</t>
   </si>
   <si>
-    <t>Gpr50;Tac2;Nup62cl;Renbp</t>
-  </si>
-  <si>
     <t>Gpr50_Pgr15l</t>
   </si>
   <si>
-    <t>Pirt;Tbx19;Anxa2;Cd1d1;Crhr2</t>
-  </si>
-  <si>
     <t>Pirt_Tbx19</t>
   </si>
   <si>
-    <t>Slc6a3;Sln;Th;Rxfp2;Coch;9130024F11Rik;Satb2;Aox3;Cgnl1;Scn7a;Trpm1;Tnfrsf11b;Sntg2;Glis3;Homer2;Man1a</t>
-  </si>
-  <si>
     <t>Slc6a3_Rxfp2</t>
   </si>
   <si>
-    <t>Tac2;Kiss1;Lhfpl1;Rxfp1;Nr5a2;Inhbb;Nr4a2;Col24a1;Col2a1;Rd3;Npr3;Lrrc38;Slc38a3;Nxf3;Lipg;Aebp1;Sdc2;Laptm4b;Rap2c;Rara</t>
-  </si>
-  <si>
     <t>Tac2_Kiss1</t>
   </si>
   <si>
-    <t>Ghrh;Slc18a3;Slc10a4;Chat;Scgn;Gsx1;Gm2990;Mbnl3;Colec12;Neb</t>
-  </si>
-  <si>
     <t>Ghrh_Mbnl3</t>
   </si>
   <si>
-    <t>Agrp;Npy;Acvr1c;Gm8773;Krtap17-1;Atf3;Nr5a2;Psmb8;Timp1;Serpina3c;Gm10714;C1qtnf7;Ccdc160</t>
-  </si>
-  <si>
     <t>Agrp_Acvr1c</t>
   </si>
   <si>
-    <t>Pomc;Ttr;Tbx3os1;Kcne1l;Tmem8c</t>
-  </si>
-  <si>
     <t>Pomc_Ttr</t>
   </si>
   <si>
-    <t>Pomc;Cd44;Anxa2;Prdm12;Sox3;Dpys;Pon3;Myo3b</t>
-  </si>
-  <si>
     <t>Pomc_Anxa2</t>
   </si>
   <si>
-    <t>Qrfp;Tm4sf4;Slc25a48;Rfx4;Fibcd1;Car8;Galnt15;Fam181a;Nek7;Ptpro</t>
-  </si>
-  <si>
     <t>https://www.research.manchester.ac.uk/portal/files/60768465/FULL_TEXT.PDF</t>
   </si>
   <si>
@@ -180,9 +117,6 @@
     <t>Qrfp_Car8</t>
   </si>
   <si>
-    <t>Slc18a3;Ngfr;Chat;Sln;Slc5a7;Ntrk1;Insrr;Ptgds;Chrnb3;Prima1;Npr1;Thsd4;Tpbgl;Gpx2;Xaf1;S100a4;Kctd6;Ahnak2;Zap70;Vwa7</t>
-  </si>
-  <si>
     <t>https://www.sciencedirect.com/science/article/pii/000689938790268X?via%3Dihub</t>
   </si>
   <si>
@@ -192,21 +126,12 @@
     <t>Ntrk1_Chat</t>
   </si>
   <si>
-    <t>Ebf3;Avp;Oxt;Sfrp1;Nog;H2-DMb2;Caprin2;Fkbp11;Bmp4;Chil1;Cdh9;Grm3;Plekha2;Tns1;Maml3;Racgap1;Ern1;Dact1;Adam23;Vstm2a</t>
-  </si>
-  <si>
     <t>https://www.nature.com/articles/s42003-021-02110-4</t>
   </si>
   <si>
     <t>Madrigal &amp; Jurado</t>
   </si>
   <si>
-    <t>Oxt_Avp</t>
-  </si>
-  <si>
-    <t>Npw;Ebf1;Npy;Omp;9130206I24Rik;Nkx2-4;Rbp1;Foxd2;Mbnl3;4933403O08Rik;Esyt3;Lnx2</t>
-  </si>
-  <si>
     <t>https://www.nature.com/articles/s41593-019-0349-8</t>
   </si>
   <si>
@@ -216,21 +141,12 @@
     <t>Npw_Nkx24</t>
   </si>
   <si>
-    <t>Rfx4;Pter;Gm867;Pdyn;Car12;Hcrt;Vim;Mns1;Vgll2;Hspb3;Psmb8;Tmem106a;Kif26a;Igfbp3;Prrg4;Gast;Cdkl4;Tead1;Dtx3l;Gnb4</t>
-  </si>
-  <si>
     <t>Hcrt_Rfx4</t>
   </si>
   <si>
-    <t>Parpbp;Otx1;Mup6;Pmch;Fkbp11;Enpp2;Cd302;Tnfaip8;Nucb2;Cpxm2;Rcn1</t>
-  </si>
-  <si>
     <t>Pmch_Parpbp</t>
   </si>
   <si>
-    <t>Hdc;Prph;Barhl2;Tmem114;Otop3;Wnt2;Wif1;Slc35d3;Avil;Wnt9b;Tspan12;Gm8773;Slc26a4;Oas1d;Kremen1;Syk;Matn2;Lix1;Ism1;Cwh43</t>
-  </si>
-  <si>
     <t>https://elifesciences.org/articles/58901</t>
   </si>
   <si>
@@ -240,9 +156,6 @@
     <t>Prph_Hdc</t>
   </si>
   <si>
-    <t>A930003A15Rik;Arg1;Epcam;Fgd2;Gng8;Gnrh1;Rab25;Six1;Tstd1;Wfdc1;Tmem45b;Tmprss6;Pirt;Smim22;Fam92b;Lect1;Clic1;Meis1;Pde11a;Acbd7</t>
-  </si>
-  <si>
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6482113/</t>
   </si>
   <si>
@@ -252,42 +165,27 @@
     <t>Gnrh1_Gng8</t>
   </si>
   <si>
-    <t>Shox2;Tcf7l2;Gbx2;Nbl1;Ramp3;Gpr4;Slitrk6;Fbln1;Synpo2;Arsj;Nkd1;Edaradd;Hrk;Clmn</t>
-  </si>
-  <si>
     <t>Shox2_Gbx2</t>
   </si>
   <si>
-    <t>Foxb1;Ttn;Sall3;Asb2;Car7;Col19a1;Ccdc121;Ifit2;Tmem196;Tnc;Mapk12;Tcap;Mamdc2;Pygm;Hcn4;Rasgef1c;Glis2;Usp28;Myadml2;Robo2</t>
-  </si>
-  <si>
     <t>Not excatly in : Mickelsen et al. VPH</t>
   </si>
   <si>
     <t>Ttn_Foxb1</t>
   </si>
   <si>
-    <t>Fezf2;Il31ra;Fst;Samd3;Mab21l1;Tnfaip8;Gpsm3</t>
-  </si>
-  <si>
     <t>Not excatly in : Moffit et al.</t>
   </si>
   <si>
     <t>Fst_Fezf2</t>
   </si>
   <si>
-    <t>Trh;Omp;Sall3;Ghrh;Mab21l2;Sim2;Gstm2;Traf3ip2</t>
-  </si>
-  <si>
     <t>Possibly: olfactory?</t>
   </si>
   <si>
     <t>Omp_Sim2</t>
   </si>
   <si>
-    <t>Vip;Grp;Dsg2;Emp1;Pvrl3</t>
-  </si>
-  <si>
     <t>https://www.nature.com/articles/s41593-020-0586-x</t>
   </si>
   <si>
@@ -297,9 +195,6 @@
     <t>Vip_Grp</t>
   </si>
   <si>
-    <t>Vip;Nms;Npy6r;Sod3;Nov;Cebpa;Ctla2a;Creb3l1;Insl6;Rhpn2;Dusp4;D7Ertd443e;Itgb8;Flt3;Iqsec3</t>
-  </si>
-  <si>
     <t>Vip_Nov</t>
   </si>
   <si>
@@ -316,6 +211,147 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1210/en.2002-220516</t>
+  </si>
+  <si>
+    <t>Yamishita et al 2002</t>
+  </si>
+  <si>
+    <t>Vip,Nms,Npy6r,Sod3,Nov,Cebpa,Ctla2a,Creb3l1,Insl6,Rhpn2,Dusp4,D7Ertd443e,Itgb8,Flt3,Iqsec3</t>
+  </si>
+  <si>
+    <t>Vip,Grp,Dsg2,Emp1,Pvrl3</t>
+  </si>
+  <si>
+    <t>Trh,Omp,Sall3,Ghrh,Mab21l2,Sim2,Gstm2,Traf3ip2</t>
+  </si>
+  <si>
+    <t>Fezf2,Il31ra,Fst,Samd3,Mab21l1,Tnfaip8,Gpsm3</t>
+  </si>
+  <si>
+    <t>Foxb1,Ttn,Sall3,Asb2,Car7,Col19a1,Ccdc121,Ifit2,Tmem196,Tnc,Mapk12,Tcap,Mamdc2,Pygm,Hcn4,Rasgef1c,Glis2,Usp28,Myadml2,Robo2</t>
+  </si>
+  <si>
+    <t>Shox2,Tcf7l2,Gbx2,Nbl1,Ramp3,Gpr4,Slitrk6,Fbln1,Synpo2,Arsj,Nkd1,Edaradd,Hrk,Clmn</t>
+  </si>
+  <si>
+    <t>A930003A15Rik,Arg1,Epcam,Fgd2,Gng8,Gnrh1,Rab25,Six1,Tstd1,Wfdc1,Tmem45b,Tmprss6,Pirt,Smim22,Fam92b,Lect1,Clic1,Meis1,Pde11a,Acbd7</t>
+  </si>
+  <si>
+    <t>Hdc,Prph,Barhl2,Tmem114,Otop3,Wnt2,Wif1,Slc35d3,Avil,Wnt9b,Tspan12,Gm8773,Slc26a4,Oas1d,Kremen1,Syk,Matn2,Lix1,Ism1,Cwh43</t>
+  </si>
+  <si>
+    <t>Parpbp,Otx1,Mup6,Pmch,Fkbp11,Enpp2,Cd302,Tnfaip8,Nucb2,Cpxm2,Rcn1</t>
+  </si>
+  <si>
+    <t>Rfx4,Pter,Gm867,Pdyn,Car12,Hcrt,Vim,Mns1,Vgll2,Hspb3,Psmb8,Tmem106a,Kif26a,Igfbp3,Prrg4,Gast,Cdkl4,Tead1,Dtx3l,Gnb4</t>
+  </si>
+  <si>
+    <t>Npw,Ebf1,Npy,Omp,9130206I24Rik,Nkx2-4,Rbp1,Foxd2,Mbnl3,4933403O08Rik,Esyt3,Lnx2</t>
+  </si>
+  <si>
+    <t>Ebf3,Avp,Oxt,Sfrp1,Nog,H2-DMb2,Caprin2,Fkbp11,Bmp4,Chil1,Cdh9,Grm3,Plekha2,Tns1,Maml3,Racgap1,Ern1,Dact1,Adam23,Vstm2a</t>
+  </si>
+  <si>
+    <t>Slc18a3,Ngfr,Chat,Sln,Slc5a7,Ntrk1,Insrr,Ptgds,Chrnb3,Prima1,Npr1,Thsd4,Tpbgl,Gpx2,Xaf1,S100a4,Kctd6,Ahnak2,Zap70,Vwa7</t>
+  </si>
+  <si>
+    <t>Qrfp,Tm4sf4,Slc25a48,Rfx4,Fibcd1,Car8,Galnt15,Fam181a,Nek7,Ptpro</t>
+  </si>
+  <si>
+    <t>Pomc,Cd44,Anxa2,Prdm12,Sox3,Dpys,Pon3,Myo3b</t>
+  </si>
+  <si>
+    <t>Pomc,Ttr,Tbx3os1,Kcne1l,Tmem8c</t>
+  </si>
+  <si>
+    <t>Agrp,Npy,Acvr1c,Gm8773,Krtap17-1,Atf3,Nr5a2,Psmb8,Timp1,Serpina3c,Gm10714,C1qtnf7,Ccdc160</t>
+  </si>
+  <si>
+    <t>Ghrh,Slc18a3,Slc10a4,Chat,Scgn,Gsx1,Gm2990,Mbnl3,Colec12,Neb</t>
+  </si>
+  <si>
+    <t>Tac2,Kiss1,Lhfpl1,Rxfp1,Nr5a2,Inhbb,Nr4a2,Col24a1,Col2a1,Rd3,Npr3,Lrrc38,Slc38a3,Nxf3,Lipg,Aebp1,Sdc2,Laptm4b,Rap2c,Rara</t>
+  </si>
+  <si>
+    <t>Slc6a3,Sln,Th,Rxfp2,Coch,9130024F11Rik,Satb2,Aox3,Cgnl1,Scn7a,Trpm1,Tnfrsf11b,Sntg2,Glis3,Homer2,Man1a</t>
+  </si>
+  <si>
+    <t>Pirt,Tbx19,Anxa2,Cd1d1,Crhr2</t>
+  </si>
+  <si>
+    <t>Gpr50,Tac2,Nup62cl,Renbp</t>
+  </si>
+  <si>
+    <t>Sox14,Unc13c,Lef1,Krt73,Wif1,Bmp2,Kl,Rspo2,Bsx,Opcml</t>
+  </si>
+  <si>
+    <t>Sln,Ebf3,Ctxn3,Ebf2,Postn,Adgrd1,Eomes,Fam129a,Rbp7,Cxcl13,Pdlim3,Tmem182,Clec1a,Adprhl1,Zfp114,Col9a1,Wdfy2,Tank,Bhlhe40,Crispld2</t>
+  </si>
+  <si>
+    <t>Abhd3,Paqr8,Paqr6,Htra1,Nrarp,Arhgef26,Dbx2,Lfng,Gm3764,Tlcd1,Slc6a11,Phkg1,Lrig1,Pla2g7,Cyp2j9,Slc39a12,Cd38,Itih3,Fgfr3,Agt,Slc7a10</t>
+  </si>
+  <si>
+    <t>Ccdc41,2900006K08Rik,Ddo,Cfap46,Fhad1,Spata24,Stk33,Nin,Ccpg1os,4933434E20Rik,Efcab1,Ccdc30,2610015P09Rik,Lrrc6,Dnah7b,Ipo11,Fam188b,Hipk1,Drc1,D930014E17Rik,Galk2,Lyrm1,Ccdc173,Acss3,Cdk5rap2,Wdr78,Cep128,Cfap74,Plekha7,Armc2,Ccdc164,Rsph10b,Cetn4,Erich3,Nr2f1,Dnah1,Spag16,Plch1,Fam179a,Vwa5b1,1700003M02Rik,Cfap69,Lrrc9,Ulk4,Fank1,4932438H23Rik,Iqck,Gm5918,Ccdc65,A330021E22Rik</t>
+  </si>
+  <si>
+    <t>Clmp,Shc1,Flrt2,Fkbp9,Tnfsf12,Fhl2,Tnfrsf1a,Fam43a,Cmbl,Efemp2,Tgfbr3,Matn2,Medag,Eln,Mmp14,Copz2,Igfbp4,Wnt5a,Selenbp1,Lamb1,Serpine1,Col5a2,Col26a1,Abca8a,Cpxm1,Fkbp7,Bmp4,Fbln5,Htra3,Slc1a5,Tfpi,Mrc2,Zic4,Ogn,Bmp7,Enpp1,Lama1,Islr,Col6a1,Col4a5,Fgl2,Aldh1a1,Fbln7,Emp3,Gpr182,Zic1,Sod3,Ccl7,Serpinf1,Fbln2</t>
+  </si>
+  <si>
+    <t>Rgs10,Grn,Ifngr1,Plekho1,Kctd12,Ctsz,Nfkbiz,Fam105a,Lpcat2,F11r,Lyn,Tgfbr1,Fyb,Hexb,Alox5ap,Vsir,Lst1,Tgfb1,Pycard,Ptpn18,Hpgd,Hk2,Arhgdib,Unc93b1,Apbb1ip,Hpgds,Lcp1,Lair1,Cmtm7,Plek,Bcl2a1b,Cd68,Cyth4,Fermt3,Ctsc,Ncf1,Ptgs1,Gngt2,Ccr5,Cd52,Inpp5d,Crybb1,Slc15a3,Irf8,Tyrobp,Ltc4s,Aif1,Abi3,Selplg,Ccl4</t>
+  </si>
+  <si>
+    <t>Lpp,Tns2,Tgfb1i1,Wtip,Ecm2,Ntn4,Tbx3os1,Igfbp3,Perp,S1pr3,Pde3a,1810011O10Rik,Rasl12,4930523C07Rik,P2ry14,Cox4i2,Clec14a,Asb2,Pdlim3,Pde5a,Filip1l,Hspb2,Mylk,Mndal,Lrrc32,Slc38a11,Gja4,Tpm2,Sema3g,Mrvi1,Gm13861,Rbpms2,Mustn1,Gper1,Mir143hg,Gpr20,Map3k7cl,Aspn,Tagln,Pln,Des,Myh11,Olfr558,Lmod1</t>
+  </si>
+  <si>
+    <t>G0s2,Gpt2,Cdo1,Ppp1r14b,Car8,Traf4,Rlbp1,Snx22,Matn4,3110035E14Rik,Emid1,Neu4,C1ql1</t>
+  </si>
+  <si>
+    <t>Cd82,Dock10,Carhsp1,Mbp,Tmbim1,Psat1,Etv1,Arhgef10,Csrp1,Frmd8,Litaf,Slc44a1,Slain1,Gal3st1,Ppp1r16b,Tmem63a,Prr5l,Ttyh2,Gltp,Rhog,Creb5,Mobp,Elovl1,Gamt,Tspan2,Grb14,Gpr37,Trim59,Tprn,1700047M11Rik,Ugt8a,Myrf,Mag,Car14,Pdlim2,Tnfaip6,Hapln2,Fa2h,Tmem88b,Ppp1r14a,Gjc2,Cldn11,Gjb1,Ermn,Aspa,Opalin,Mog,Tmem125</t>
+  </si>
+  <si>
+    <t>Kcnk3,Dnase2a,Smim22,Ccdc68,Krt18,Apoc3,Timeless,Cck,Cga,Ces1d,Cldn9,Figf,Dsp,Epcam,Pitx2,Tshb,Six1,Cldn7,Pitx1</t>
+  </si>
+  <si>
+    <t>Slit2,Deptor,Nkx2-4,Lhx2,Fzd5,Gpr50,Col23a1,Kctd14,Frzb,Rax</t>
+  </si>
+  <si>
+    <t>Cav2,Afap1l1,Ltbp4,Itga6,Eogt,Rasgrp3,Wwtr1,Sema7a,Slc7a5,Palmd,Ccdc141,Sema3c,Rasip1,Kank3,Cgnl1,9430020K01Rik,Ocln,Apold1,Grap,Hmcn1,Lsr,Prom1,Wfdc1,Ctla2a,Lef1,Car4,Paqr5,Foxq1,Nostrin,Pglyrp1,Fn1,Tie1,Cyyr1,Cldn5,Slco1a4,Sox17,Adgrl4</t>
+  </si>
+  <si>
+    <t>Magnocellular-VP</t>
+  </si>
+  <si>
+    <t>Magnocellular-Oxyt</t>
+  </si>
+  <si>
+    <t>NOT</t>
+  </si>
+  <si>
+    <t>PFK-C, Nnat, PAPSS2, Syt5, Mt3/GIF, Peg3</t>
+  </si>
+  <si>
+    <t>Other Neurone</t>
+  </si>
+  <si>
+    <t>HNS</t>
+  </si>
+  <si>
+    <t>PFK-C, Nnat,, Syt5, Mt3/GIF, Peg3</t>
+  </si>
+  <si>
+    <t>PFK-C, Peg3</t>
+  </si>
+  <si>
+    <t>Syt5, Mt3/GIF</t>
+  </si>
+  <si>
+    <t>PAPSS2</t>
+  </si>
+  <si>
+    <t>Oxt_AVP</t>
   </si>
 </sst>
 </file>
@@ -710,10 +746,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CA739A-B7AC-F241-80EB-1AE36FF3632D}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -722,537 +761,602 @@
     <col min="2" max="2" width="28.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="39" style="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="5" width="116.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="82.1640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1">
         <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1">
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1">
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1">
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1">
         <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1">
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1">
         <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1">
         <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1">
         <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1">
         <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1">
         <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1">
         <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1">
         <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1">
         <v>8</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1">
         <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D18" s="1">
         <v>13</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D19" s="1">
         <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D20" s="1">
         <v>20</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D21" s="1">
         <v>16</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D22" s="1">
         <v>5</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D23" s="1">
         <v>4</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D24" s="1">
         <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D25" s="1">
         <v>20</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D26" s="1">
         <v>21</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D27" s="1">
         <v>50</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D28" s="1">
         <v>50</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D29" s="1">
         <v>50</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D30" s="1">
         <v>44</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D31" s="1">
         <v>13</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D32" s="1">
         <v>48</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" s="1">
         <v>19</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D34" s="1">
         <v>10</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="1">
         <v>37</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>0</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1279,6 +1383,10 @@
     <hyperlink ref="C22" r:id="rId20" xr:uid="{A60236F4-6637-654C-A385-02B16AA66C8A}"/>
     <hyperlink ref="C23" r:id="rId21" xr:uid="{0AF37BB9-2C96-8C42-B5DE-EDE72CE882D2}"/>
     <hyperlink ref="C24" r:id="rId22" xr:uid="{64CD1518-8824-674E-91F5-C91AF083D8BE}"/>
+    <hyperlink ref="C36" r:id="rId23" xr:uid="{535AB93D-E181-0347-9D60-D2D0A57B5345}"/>
+    <hyperlink ref="C37" r:id="rId24" xr:uid="{BC008E07-2AA8-3C44-83B0-5F3959F9308A}"/>
+    <hyperlink ref="C38" r:id="rId25" xr:uid="{0AE5F4E2-7F9A-FB4E-B3D7-1CDE089B3579}"/>
+    <hyperlink ref="C39" r:id="rId26" xr:uid="{24BDCFE8-4CCB-6A49-B628-DC9DAD17E2D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
